--- a/db/attendance_issue.xlsx
+++ b/db/attendance_issue.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25317"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csyers\Documents\Fall 2016\Database Concepts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23780" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -654,9 +659,6 @@
     <t>jlee55</t>
   </si>
   <si>
-    <t>Lee, Brian</t>
-  </si>
-  <si>
     <t>jpine</t>
   </si>
   <si>
@@ -750,15 +752,9 @@
     <t>tstutts</t>
   </si>
   <si>
-    <t>Kelly, Sean</t>
-  </si>
-  <si>
     <t>xzhuang</t>
   </si>
   <si>
-    <t>Smith, EJ</t>
-  </si>
-  <si>
     <t>rgallant</t>
   </si>
   <si>
@@ -853,12 +849,21 @@
   </si>
   <si>
     <t>oberardi</t>
+  </si>
+  <si>
+    <t>skelly</t>
+  </si>
+  <si>
+    <t>blee</t>
+  </si>
+  <si>
+    <t>esmith</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1240,7 +1245,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1250,17 +1255,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D871"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J229" sqref="J229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -1288,7 +1293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -1316,7 +1321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -1344,7 +1349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -1358,7 +1363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1386,7 +1391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1400,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1414,7 +1419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1428,7 +1433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1456,7 +1461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1470,7 +1475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -1484,7 +1489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -1498,7 +1503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -1526,7 +1531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -1540,7 +1545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>187</v>
       </c>
@@ -1554,7 +1559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>187</v>
       </c>
@@ -1568,7 +1573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1582,7 +1587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1596,7 +1601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1610,9 +1615,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1624,9 +1629,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -1638,7 +1643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -1666,7 +1671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1680,9 +1685,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B31">
         <v>38</v>
@@ -1694,9 +1699,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32">
         <v>22</v>
@@ -1708,9 +1713,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -1722,7 +1727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>154</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>154</v>
       </c>
@@ -1750,7 +1755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -1764,7 +1769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1792,7 +1797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -1806,7 +1811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1820,7 +1825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -1834,7 +1839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>198</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -1862,7 +1867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -1876,7 +1881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -1904,7 +1909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -1918,7 +1923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -1932,7 +1937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -1946,7 +1951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -1960,7 +1965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -1988,7 +1993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -2002,7 +2007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -2016,7 +2021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -2030,7 +2035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -2044,7 +2049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -2058,9 +2063,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B58">
         <v>32</v>
@@ -2072,9 +2077,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B59">
         <v>38</v>
@@ -2086,9 +2091,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B60">
         <v>50</v>
@@ -2100,9 +2105,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B61">
         <v>55</v>
@@ -2114,9 +2119,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B62">
         <v>11</v>
@@ -2128,9 +2133,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B63">
         <v>29</v>
@@ -2142,9 +2147,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B64">
         <v>31</v>
@@ -2156,9 +2161,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B65">
         <v>39</v>
@@ -2170,7 +2175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -2184,7 +2189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -2198,7 +2203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -2212,7 +2217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -2226,7 +2231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2240,7 +2245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -2254,7 +2259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -2268,7 +2273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>139</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -2296,7 +2301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>139</v>
       </c>
@@ -2310,9 +2315,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B76">
         <v>38</v>
@@ -2324,9 +2329,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B77">
         <v>52</v>
@@ -2338,7 +2343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -2352,7 +2357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2366,7 +2371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -2380,7 +2385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -2394,7 +2399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>73</v>
       </c>
@@ -2408,7 +2413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>133</v>
       </c>
@@ -2422,7 +2427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -2436,7 +2441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -2464,7 +2469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -2492,7 +2497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>178</v>
       </c>
@@ -2506,7 +2511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -2520,7 +2525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -2534,7 +2539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>178</v>
       </c>
@@ -2548,7 +2553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>178</v>
       </c>
@@ -2562,7 +2567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>178</v>
       </c>
@@ -2576,7 +2581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>178</v>
       </c>
@@ -2590,7 +2595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>178</v>
       </c>
@@ -2604,7 +2609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>46</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -2646,7 +2651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -2660,7 +2665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -2674,7 +2679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -2688,7 +2693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -2702,7 +2707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>181</v>
       </c>
@@ -2716,7 +2721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>181</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>201</v>
       </c>
@@ -2744,7 +2749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>184</v>
       </c>
@@ -2758,7 +2763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>184</v>
       </c>
@@ -2772,7 +2777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>184</v>
       </c>
@@ -2786,7 +2791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -2800,7 +2805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -2814,7 +2819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2828,7 +2833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -2842,7 +2847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -2856,7 +2861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -2870,7 +2875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>98</v>
       </c>
@@ -2884,7 +2889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>98</v>
       </c>
@@ -2898,9 +2903,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B118">
         <v>15</v>
@@ -2912,7 +2917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -2926,7 +2931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -2940,7 +2945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -2954,7 +2959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -2968,7 +2973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>66</v>
       </c>
@@ -2982,7 +2987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>66</v>
       </c>
@@ -2996,7 +3001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>66</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>66</v>
       </c>
@@ -3024,9 +3029,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B127">
         <v>46</v>
@@ -3038,7 +3043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>109</v>
       </c>
@@ -3052,7 +3057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>195</v>
       </c>
@@ -3066,7 +3071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>195</v>
       </c>
@@ -3080,7 +3085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>195</v>
       </c>
@@ -3094,7 +3099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>103</v>
       </c>
@@ -3108,7 +3113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>103</v>
       </c>
@@ -3122,7 +3127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>103</v>
       </c>
@@ -3136,7 +3141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>103</v>
       </c>
@@ -3150,7 +3155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>103</v>
       </c>
@@ -3164,7 +3169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>103</v>
       </c>
@@ -3178,7 +3183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>103</v>
       </c>
@@ -3192,7 +3197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>103</v>
       </c>
@@ -3206,7 +3211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>103</v>
       </c>
@@ -3220,7 +3225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>108</v>
       </c>
@@ -3234,7 +3239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>108</v>
       </c>
@@ -3248,7 +3253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>108</v>
       </c>
@@ -3262,7 +3267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>108</v>
       </c>
@@ -3276,7 +3281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>204</v>
       </c>
@@ -3290,9 +3295,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B146">
         <v>46</v>
@@ -3304,7 +3309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>122</v>
       </c>
@@ -3318,7 +3323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>122</v>
       </c>
@@ -3332,7 +3337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>122</v>
       </c>
@@ -3346,7 +3351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>35</v>
       </c>
@@ -3360,7 +3365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>35</v>
       </c>
@@ -3374,7 +3379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>35</v>
       </c>
@@ -3388,7 +3393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -3402,9 +3407,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B154">
         <v>5</v>
@@ -3416,9 +3421,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B155">
         <v>19</v>
@@ -3430,9 +3435,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B156">
         <v>46</v>
@@ -3444,9 +3449,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B157">
         <v>24</v>
@@ -3458,9 +3463,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B158">
         <v>15</v>
@@ -3472,9 +3477,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B159">
         <v>36</v>
@@ -3486,7 +3491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>153</v>
       </c>
@@ -3500,7 +3505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -3514,9 +3519,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B162">
         <v>43</v>
@@ -3528,9 +3533,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B163">
         <v>44</v>
@@ -3542,9 +3547,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B164">
         <v>10</v>
@@ -3556,7 +3561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>180</v>
       </c>
@@ -3570,7 +3575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -3584,7 +3589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>180</v>
       </c>
@@ -3598,7 +3603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -3612,7 +3617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>180</v>
       </c>
@@ -3626,7 +3631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>180</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>180</v>
       </c>
@@ -3654,7 +3659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -3682,7 +3687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>136</v>
       </c>
@@ -3696,7 +3701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>136</v>
       </c>
@@ -3710,7 +3715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>136</v>
       </c>
@@ -3724,7 +3729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>136</v>
       </c>
@@ -3738,7 +3743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>136</v>
       </c>
@@ -3752,7 +3757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>136</v>
       </c>
@@ -3766,7 +3771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>136</v>
       </c>
@@ -3780,7 +3785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>136</v>
       </c>
@@ -3794,9 +3799,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B182">
         <v>8</v>
@@ -3808,9 +3813,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B183">
         <v>29</v>
@@ -3822,9 +3827,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B184">
         <v>38</v>
@@ -3836,9 +3841,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B185">
         <v>46</v>
@@ -3850,7 +3855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>105</v>
       </c>
@@ -3864,7 +3869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>105</v>
       </c>
@@ -3878,7 +3883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>105</v>
       </c>
@@ -3892,7 +3897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>105</v>
       </c>
@@ -3906,7 +3911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>105</v>
       </c>
@@ -3920,7 +3925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>105</v>
       </c>
@@ -3934,7 +3939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>105</v>
       </c>
@@ -3948,7 +3953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>105</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>105</v>
       </c>
@@ -3976,7 +3981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>172</v>
       </c>
@@ -3990,7 +3995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>42</v>
       </c>
@@ -4004,7 +4009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>42</v>
       </c>
@@ -4018,7 +4023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -4032,7 +4037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>179</v>
       </c>
@@ -4046,7 +4051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>179</v>
       </c>
@@ -4060,7 +4065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -4074,7 +4079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -4088,7 +4093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>119</v>
       </c>
@@ -4102,7 +4107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>51</v>
       </c>
@@ -4116,7 +4121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>51</v>
       </c>
@@ -4130,7 +4135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>116</v>
       </c>
@@ -4144,7 +4149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>116</v>
       </c>
@@ -4158,7 +4163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>57</v>
       </c>
@@ -4172,7 +4177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>57</v>
       </c>
@@ -4186,7 +4191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>155</v>
       </c>
@@ -4200,7 +4205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>50</v>
       </c>
@@ -4214,7 +4219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>50</v>
       </c>
@@ -4228,7 +4233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>50</v>
       </c>
@@ -4242,7 +4247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>50</v>
       </c>
@@ -4256,7 +4261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>50</v>
       </c>
@@ -4270,7 +4275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>149</v>
       </c>
@@ -4284,7 +4289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>149</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>149</v>
       </c>
@@ -4312,9 +4317,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B219">
         <v>3</v>
@@ -4326,9 +4331,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B220">
         <v>10</v>
@@ -4340,9 +4345,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B221">
         <v>45</v>
@@ -4354,7 +4359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>31</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>205</v>
       </c>
@@ -4382,7 +4387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>205</v>
       </c>
@@ -4396,7 +4401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>205</v>
       </c>
@@ -4410,7 +4415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>205</v>
       </c>
@@ -4424,7 +4429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>205</v>
       </c>
@@ -4438,9 +4443,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228">
         <v>11</v>
@@ -4452,9 +4457,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B229">
         <v>24</v>
@@ -4466,7 +4471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>197</v>
       </c>
@@ -4480,9 +4485,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B231">
         <v>15</v>
@@ -4494,9 +4499,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B232">
         <v>22</v>
@@ -4508,9 +4513,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B233">
         <v>29</v>
@@ -4522,9 +4527,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B234">
         <v>36</v>
@@ -4536,9 +4541,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B235">
         <v>46</v>
@@ -4550,9 +4555,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B236">
         <v>50</v>
@@ -4564,9 +4569,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B237">
         <v>64</v>
@@ -4578,7 +4583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>82</v>
       </c>
@@ -4592,7 +4597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>157</v>
       </c>
@@ -4606,7 +4611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>157</v>
       </c>
@@ -4620,7 +4625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>157</v>
       </c>
@@ -4634,7 +4639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>157</v>
       </c>
@@ -4648,7 +4653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>157</v>
       </c>
@@ -4662,7 +4667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>49</v>
       </c>
@@ -4676,7 +4681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>49</v>
       </c>
@@ -4690,7 +4695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>49</v>
       </c>
@@ -4704,7 +4709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>49</v>
       </c>
@@ -4718,7 +4723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>49</v>
       </c>
@@ -4732,7 +4737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>44</v>
       </c>
@@ -4746,7 +4751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>44</v>
       </c>
@@ -4760,7 +4765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>44</v>
       </c>
@@ -4774,7 +4779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>44</v>
       </c>
@@ -4788,7 +4793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>44</v>
       </c>
@@ -4802,7 +4807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>44</v>
       </c>
@@ -4816,7 +4821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>44</v>
       </c>
@@ -4830,7 +4835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>44</v>
       </c>
@@ -4844,7 +4849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>44</v>
       </c>
@@ -4858,7 +4863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -4872,7 +4877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -4886,7 +4891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -4900,7 +4905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>129</v>
       </c>
@@ -4914,7 +4919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>199</v>
       </c>
@@ -4928,7 +4933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>174</v>
       </c>
@@ -4942,7 +4947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>174</v>
       </c>
@@ -4956,7 +4961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>174</v>
       </c>
@@ -4970,7 +4975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>174</v>
       </c>
@@ -4984,7 +4989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>52</v>
       </c>
@@ -4998,7 +5003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>52</v>
       </c>
@@ -5012,7 +5017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>52</v>
       </c>
@@ -5026,7 +5031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>52</v>
       </c>
@@ -5040,7 +5045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>142</v>
       </c>
@@ -5054,7 +5059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>142</v>
       </c>
@@ -5068,7 +5073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>142</v>
       </c>
@@ -5082,7 +5087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>142</v>
       </c>
@@ -5096,7 +5101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>142</v>
       </c>
@@ -5110,7 +5115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>97</v>
       </c>
@@ -5124,7 +5129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>97</v>
       </c>
@@ -5138,7 +5143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>97</v>
       </c>
@@ -5152,7 +5157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>97</v>
       </c>
@@ -5166,7 +5171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>60</v>
       </c>
@@ -5180,7 +5185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>72</v>
       </c>
@@ -5194,7 +5199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>72</v>
       </c>
@@ -5208,7 +5213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>72</v>
       </c>
@@ -5222,7 +5227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>72</v>
       </c>
@@ -5236,7 +5241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>143</v>
       </c>
@@ -5250,7 +5255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>143</v>
       </c>
@@ -5264,9 +5269,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B287">
         <v>8</v>
@@ -5278,9 +5283,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B288">
         <v>11</v>
@@ -5292,9 +5297,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B289">
         <v>15</v>
@@ -5306,9 +5311,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B290">
         <v>39</v>
@@ -5320,9 +5325,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B291">
         <v>46</v>
@@ -5334,9 +5339,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B292">
         <v>54</v>
@@ -5348,7 +5353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>194</v>
       </c>
@@ -5362,7 +5367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>194</v>
       </c>
@@ -5376,7 +5381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>194</v>
       </c>
@@ -5390,7 +5395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>182</v>
       </c>
@@ -5404,7 +5409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>189</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>189</v>
       </c>
@@ -5432,7 +5437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>163</v>
       </c>
@@ -5446,7 +5451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>166</v>
       </c>
@@ -5460,9 +5465,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B301">
         <v>22</v>
@@ -5474,9 +5479,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B302">
         <v>31</v>
@@ -5488,9 +5493,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B303">
         <v>39</v>
@@ -5502,9 +5507,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B304">
         <v>54</v>
@@ -5516,7 +5521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>141</v>
       </c>
@@ -5530,7 +5535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>141</v>
       </c>
@@ -5544,7 +5549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>141</v>
       </c>
@@ -5558,7 +5563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>141</v>
       </c>
@@ -5572,7 +5577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>63</v>
       </c>
@@ -5586,7 +5591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>63</v>
       </c>
@@ -5600,7 +5605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>63</v>
       </c>
@@ -5614,7 +5619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>63</v>
       </c>
@@ -5628,7 +5633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>63</v>
       </c>
@@ -5642,7 +5647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>63</v>
       </c>
@@ -5656,9 +5661,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B315">
         <v>22</v>
@@ -5670,9 +5675,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B316">
         <v>17</v>
@@ -5684,9 +5689,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B317">
         <v>22</v>
@@ -5698,9 +5703,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B318">
         <v>5</v>
@@ -5712,7 +5717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>87</v>
       </c>
@@ -5726,7 +5731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>87</v>
       </c>
@@ -5740,7 +5745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>87</v>
       </c>
@@ -5754,7 +5759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>87</v>
       </c>
@@ -5768,7 +5773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>87</v>
       </c>
@@ -5782,7 +5787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>87</v>
       </c>
@@ -5796,7 +5801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>87</v>
       </c>
@@ -5810,7 +5815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>87</v>
       </c>
@@ -5824,7 +5829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>87</v>
       </c>
@@ -5838,7 +5843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>87</v>
       </c>
@@ -5852,7 +5857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>169</v>
       </c>
@@ -5866,7 +5871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>59</v>
       </c>
@@ -5880,9 +5885,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B331">
         <v>5</v>
@@ -5894,9 +5899,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B332">
         <v>16</v>
@@ -5908,9 +5913,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B333">
         <v>23</v>
@@ -5922,9 +5927,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B334">
         <v>24</v>
@@ -5936,9 +5941,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B335">
         <v>30</v>
@@ -5950,9 +5955,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B336">
         <v>31</v>
@@ -5964,9 +5969,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B337">
         <v>37</v>
@@ -5978,9 +5983,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B338">
         <v>43</v>
@@ -5992,9 +5997,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B339">
         <v>51</v>
@@ -6006,9 +6011,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B340">
         <v>52</v>
@@ -6020,7 +6025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>203</v>
       </c>
@@ -6034,7 +6039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>209</v>
       </c>
@@ -6048,7 +6053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>209</v>
       </c>
@@ -6062,7 +6067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>209</v>
       </c>
@@ -6076,7 +6081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>209</v>
       </c>
@@ -6090,7 +6095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>209</v>
       </c>
@@ -6104,7 +6109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>209</v>
       </c>
@@ -6118,7 +6123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>15</v>
       </c>
@@ -6132,7 +6137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>43</v>
       </c>
@@ -6146,7 +6151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>43</v>
       </c>
@@ -6160,7 +6165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>43</v>
       </c>
@@ -6174,7 +6179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>171</v>
       </c>
@@ -6188,7 +6193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>48</v>
       </c>
@@ -6202,7 +6207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>48</v>
       </c>
@@ -6216,7 +6221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>48</v>
       </c>
@@ -6230,7 +6235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>48</v>
       </c>
@@ -6244,7 +6249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>168</v>
       </c>
@@ -6258,7 +6263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>10</v>
       </c>
@@ -6272,7 +6277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>10</v>
       </c>
@@ -6286,9 +6291,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B360">
         <v>8</v>
@@ -6300,9 +6305,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B361">
         <v>15</v>
@@ -6314,9 +6319,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B362">
         <v>22</v>
@@ -6328,9 +6333,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B363">
         <v>36</v>
@@ -6342,9 +6347,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B364">
         <v>38</v>
@@ -6356,9 +6361,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B365">
         <v>43</v>
@@ -6370,9 +6375,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B366">
         <v>50</v>
@@ -6384,9 +6389,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B367">
         <v>53</v>
@@ -6398,9 +6403,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B368">
         <v>55</v>
@@ -6412,9 +6417,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B369">
         <v>3</v>
@@ -6426,9 +6431,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B370">
         <v>25</v>
@@ -6440,9 +6445,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B371">
         <v>36</v>
@@ -6454,9 +6459,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B372">
         <v>38</v>
@@ -6468,9 +6473,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B373">
         <v>51</v>
@@ -6482,9 +6487,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B374">
         <v>5</v>
@@ -6496,9 +6501,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B375">
         <v>15</v>
@@ -6510,9 +6515,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B376">
         <v>22</v>
@@ -6524,9 +6529,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B377">
         <v>25</v>
@@ -6538,9 +6543,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B378">
         <v>38</v>
@@ -6552,9 +6557,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B379">
         <v>51</v>
@@ -6566,7 +6571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>79</v>
       </c>
@@ -6580,7 +6585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>177</v>
       </c>
@@ -6594,7 +6599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>177</v>
       </c>
@@ -6608,7 +6613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>177</v>
       </c>
@@ -6622,7 +6627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>177</v>
       </c>
@@ -6636,7 +6641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>11</v>
       </c>
@@ -6650,7 +6655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>88</v>
       </c>
@@ -6664,7 +6669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>88</v>
       </c>
@@ -6678,7 +6683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>88</v>
       </c>
@@ -6692,9 +6697,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B389">
         <v>18</v>
@@ -6706,9 +6711,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B390">
         <v>27</v>
@@ -6720,9 +6725,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B391">
         <v>39</v>
@@ -6734,7 +6739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>95</v>
       </c>
@@ -6748,7 +6753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>95</v>
       </c>
@@ -6762,7 +6767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>95</v>
       </c>
@@ -6776,7 +6781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>134</v>
       </c>
@@ -6790,7 +6795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>134</v>
       </c>
@@ -6804,7 +6809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>134</v>
       </c>
@@ -6818,7 +6823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>134</v>
       </c>
@@ -6832,7 +6837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>134</v>
       </c>
@@ -6846,7 +6851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>134</v>
       </c>
@@ -6860,7 +6865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>134</v>
       </c>
@@ -6874,7 +6879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>134</v>
       </c>
@@ -6888,7 +6893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>16</v>
       </c>
@@ -6902,7 +6907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>12</v>
       </c>
@@ -6916,7 +6921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>12</v>
       </c>
@@ -6930,7 +6935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>12</v>
       </c>
@@ -6944,7 +6949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -6958,7 +6963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>12</v>
       </c>
@@ -6972,7 +6977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>29</v>
       </c>
@@ -6986,7 +6991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>29</v>
       </c>
@@ -7000,7 +7005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>137</v>
       </c>
@@ -7014,7 +7019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>137</v>
       </c>
@@ -7028,7 +7033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>137</v>
       </c>
@@ -7042,7 +7047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>137</v>
       </c>
@@ -7056,7 +7061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>104</v>
       </c>
@@ -7070,7 +7075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>148</v>
       </c>
@@ -7084,7 +7089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>148</v>
       </c>
@@ -7098,7 +7103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>148</v>
       </c>
@@ -7112,9 +7117,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="B419">
         <v>24</v>
@@ -7126,9 +7131,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="B420">
         <v>29</v>
@@ -7140,7 +7145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>117</v>
       </c>
@@ -7154,7 +7159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>117</v>
       </c>
@@ -7168,7 +7173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>117</v>
       </c>
@@ -7182,7 +7187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>117</v>
       </c>
@@ -7196,7 +7201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>117</v>
       </c>
@@ -7210,7 +7215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>170</v>
       </c>
@@ -7224,7 +7229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>126</v>
       </c>
@@ -7238,7 +7243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>202</v>
       </c>
@@ -7252,7 +7257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>146</v>
       </c>
@@ -7266,7 +7271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>146</v>
       </c>
@@ -7280,7 +7285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>146</v>
       </c>
@@ -7294,7 +7299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>188</v>
       </c>
@@ -7308,7 +7313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>188</v>
       </c>
@@ -7322,7 +7327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>167</v>
       </c>
@@ -7336,7 +7341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>167</v>
       </c>
@@ -7350,7 +7355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>167</v>
       </c>
@@ -7364,7 +7369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>162</v>
       </c>
@@ -7378,7 +7383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>162</v>
       </c>
@@ -7392,7 +7397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>132</v>
       </c>
@@ -7406,7 +7411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>115</v>
       </c>
@@ -7420,7 +7425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>115</v>
       </c>
@@ -7434,7 +7439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>115</v>
       </c>
@@ -7448,7 +7453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>176</v>
       </c>
@@ -7462,7 +7467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>176</v>
       </c>
@@ -7476,7 +7481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>176</v>
       </c>
@@ -7490,7 +7495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>176</v>
       </c>
@@ -7504,7 +7509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>80</v>
       </c>
@@ -7518,7 +7523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>53</v>
       </c>
@@ -7532,7 +7537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>106</v>
       </c>
@@ -7546,7 +7551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>106</v>
       </c>
@@ -7560,7 +7565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>106</v>
       </c>
@@ -7574,7 +7579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>106</v>
       </c>
@@ -7588,7 +7593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>22</v>
       </c>
@@ -7602,7 +7607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>22</v>
       </c>
@@ -7616,7 +7621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>37</v>
       </c>
@@ -7630,7 +7635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>37</v>
       </c>
@@ -7644,7 +7649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>37</v>
       </c>
@@ -7658,7 +7663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>37</v>
       </c>
@@ -7672,7 +7677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>37</v>
       </c>
@@ -7686,7 +7691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>37</v>
       </c>
@@ -7700,7 +7705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>37</v>
       </c>
@@ -7714,7 +7719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>37</v>
       </c>
@@ -7728,9 +7733,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B463">
         <v>23</v>
@@ -7742,7 +7747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>56</v>
       </c>
@@ -7756,7 +7761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>56</v>
       </c>
@@ -7770,7 +7775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>38</v>
       </c>
@@ -7784,7 +7789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>38</v>
       </c>
@@ -7798,7 +7803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>38</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>38</v>
       </c>
@@ -7826,7 +7831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>38</v>
       </c>
@@ -7840,7 +7845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>91</v>
       </c>
@@ -7854,7 +7859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>91</v>
       </c>
@@ -7868,7 +7873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>28</v>
       </c>
@@ -7882,7 +7887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>28</v>
       </c>
@@ -7896,9 +7901,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="B475">
         <v>3</v>
@@ -7910,9 +7915,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="B476">
         <v>10</v>
@@ -7924,9 +7929,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="B477">
         <v>17</v>
@@ -7938,9 +7943,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="B478">
         <v>24</v>
@@ -7952,9 +7957,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="B479">
         <v>38</v>
@@ -7966,9 +7971,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="B480">
         <v>45</v>
@@ -7980,9 +7985,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="B481">
         <v>46</v>
@@ -7994,7 +7999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>19</v>
       </c>
@@ -8008,7 +8013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>19</v>
       </c>
@@ -8022,7 +8027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>90</v>
       </c>
@@ -8036,7 +8041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>90</v>
       </c>
@@ -8050,7 +8055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>90</v>
       </c>
@@ -8064,7 +8069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>78</v>
       </c>
@@ -8078,7 +8083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>78</v>
       </c>
@@ -8092,9 +8097,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B489">
         <v>30</v>
@@ -8106,9 +8111,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B490">
         <v>51</v>
@@ -8120,7 +8125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>152</v>
       </c>
@@ -8134,7 +8139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>152</v>
       </c>
@@ -8148,7 +8153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>18</v>
       </c>
@@ -8162,7 +8167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>18</v>
       </c>
@@ -8176,7 +8181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>18</v>
       </c>
@@ -8190,7 +8195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>18</v>
       </c>
@@ -8204,9 +8209,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B497">
         <v>52</v>
@@ -8218,9 +8223,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B498">
         <v>55</v>
@@ -8232,7 +8237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>185</v>
       </c>
@@ -8246,7 +8251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>185</v>
       </c>
@@ -8260,7 +8265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>185</v>
       </c>
@@ -8274,7 +8279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>185</v>
       </c>
@@ -8288,7 +8293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>185</v>
       </c>
@@ -8302,7 +8307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>185</v>
       </c>
@@ -8316,7 +8321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>185</v>
       </c>
@@ -8330,7 +8335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>77</v>
       </c>
@@ -8344,7 +8349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>159</v>
       </c>
@@ -8358,7 +8363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>156</v>
       </c>
@@ -8372,7 +8377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>156</v>
       </c>
@@ -8386,7 +8391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>156</v>
       </c>
@@ -8400,7 +8405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>156</v>
       </c>
@@ -8414,7 +8419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>156</v>
       </c>
@@ -8428,7 +8433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>156</v>
       </c>
@@ -8442,7 +8447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>34</v>
       </c>
@@ -8456,7 +8461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>34</v>
       </c>
@@ -8470,7 +8475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>34</v>
       </c>
@@ -8484,7 +8489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>34</v>
       </c>
@@ -8498,7 +8503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>34</v>
       </c>
@@ -8512,7 +8517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>34</v>
       </c>
@@ -8526,7 +8531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>34</v>
       </c>
@@ -8540,7 +8545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>34</v>
       </c>
@@ -8554,7 +8559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>34</v>
       </c>
@@ -8568,7 +8573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>34</v>
       </c>
@@ -8582,7 +8587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>34</v>
       </c>
@@ -8596,7 +8601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>34</v>
       </c>
@@ -8610,7 +8615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>62</v>
       </c>
@@ -8624,7 +8629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>71</v>
       </c>
@@ -8638,7 +8643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>71</v>
       </c>
@@ -8652,7 +8657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>206</v>
       </c>
@@ -8666,7 +8671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>206</v>
       </c>
@@ -8680,7 +8685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>206</v>
       </c>
@@ -8694,7 +8699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>206</v>
       </c>
@@ -8708,7 +8713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>206</v>
       </c>
@@ -8722,7 +8727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>206</v>
       </c>
@@ -8736,7 +8741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>206</v>
       </c>
@@ -8750,7 +8755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>206</v>
       </c>
@@ -8764,7 +8769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>8</v>
       </c>
@@ -8778,7 +8783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>8</v>
       </c>
@@ -8792,7 +8797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>8</v>
       </c>
@@ -8806,7 +8811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>8</v>
       </c>
@@ -8820,7 +8825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>8</v>
       </c>
@@ -8834,7 +8839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>8</v>
       </c>
@@ -8848,7 +8853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>8</v>
       </c>
@@ -8862,7 +8867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>8</v>
       </c>
@@ -8876,7 +8881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>8</v>
       </c>
@@ -8890,7 +8895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>8</v>
       </c>
@@ -8904,7 +8909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>92</v>
       </c>
@@ -8918,7 +8923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>92</v>
       </c>
@@ -8932,9 +8937,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B549">
         <v>39</v>
@@ -8946,9 +8951,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B550">
         <v>31</v>
@@ -8960,9 +8965,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B551">
         <v>43</v>
@@ -8974,9 +8979,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B552">
         <v>46</v>
@@ -8988,7 +8993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>135</v>
       </c>
@@ -9002,7 +9007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>135</v>
       </c>
@@ -9016,7 +9021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>135</v>
       </c>
@@ -9030,7 +9035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>135</v>
       </c>
@@ -9044,7 +9049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>135</v>
       </c>
@@ -9058,7 +9063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>135</v>
       </c>
@@ -9072,7 +9077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>135</v>
       </c>
@@ -9086,7 +9091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>135</v>
       </c>
@@ -9100,7 +9105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>151</v>
       </c>
@@ -9114,7 +9119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>151</v>
       </c>
@@ -9128,7 +9133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>151</v>
       </c>
@@ -9142,7 +9147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>118</v>
       </c>
@@ -9156,7 +9161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>164</v>
       </c>
@@ -9170,7 +9175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>164</v>
       </c>
@@ -9184,7 +9189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>164</v>
       </c>
@@ -9198,7 +9203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>164</v>
       </c>
@@ -9212,7 +9217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>164</v>
       </c>
@@ -9226,7 +9231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>164</v>
       </c>
@@ -9240,7 +9245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>74</v>
       </c>
@@ -9254,9 +9259,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B572">
         <v>17</v>
@@ -9268,9 +9273,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B573">
         <v>50</v>
@@ -9282,7 +9287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>67</v>
       </c>
@@ -9296,7 +9301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>45</v>
       </c>
@@ -9310,7 +9315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>45</v>
       </c>
@@ -9324,7 +9329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>45</v>
       </c>
@@ -9338,7 +9343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>207</v>
       </c>
@@ -9352,7 +9357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>207</v>
       </c>
@@ -9366,7 +9371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>207</v>
       </c>
@@ -9380,7 +9385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>207</v>
       </c>
@@ -9394,7 +9399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>207</v>
       </c>
@@ -9408,7 +9413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>207</v>
       </c>
@@ -9422,7 +9427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>207</v>
       </c>
@@ -9436,9 +9441,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B585">
         <v>38</v>
@@ -9450,7 +9455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>64</v>
       </c>
@@ -9464,7 +9469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>64</v>
       </c>
@@ -9478,7 +9483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>64</v>
       </c>
@@ -9492,7 +9497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>64</v>
       </c>
@@ -9506,9 +9511,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B590">
         <v>4</v>
@@ -9520,9 +9525,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B591">
         <v>5</v>
@@ -9534,9 +9539,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B592">
         <v>8</v>
@@ -9548,9 +9553,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B593">
         <v>22</v>
@@ -9562,7 +9567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>69</v>
       </c>
@@ -9576,7 +9581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>69</v>
       </c>
@@ -9590,7 +9595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>69</v>
       </c>
@@ -9604,7 +9609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>69</v>
       </c>
@@ -9618,7 +9623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>69</v>
       </c>
@@ -9632,7 +9637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>47</v>
       </c>
@@ -9646,7 +9651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>47</v>
       </c>
@@ -9660,7 +9665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>47</v>
       </c>
@@ -9674,7 +9679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>47</v>
       </c>
@@ -9688,7 +9693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>93</v>
       </c>
@@ -9702,7 +9707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>93</v>
       </c>
@@ -9716,7 +9721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>93</v>
       </c>
@@ -9730,7 +9735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>93</v>
       </c>
@@ -9744,7 +9749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>61</v>
       </c>
@@ -9758,7 +9763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>127</v>
       </c>
@@ -9772,7 +9777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>175</v>
       </c>
@@ -9786,7 +9791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>175</v>
       </c>
@@ -9800,7 +9805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>175</v>
       </c>
@@ -9814,7 +9819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>175</v>
       </c>
@@ -9828,7 +9833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>175</v>
       </c>
@@ -9842,7 +9847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>175</v>
       </c>
@@ -9856,7 +9861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>175</v>
       </c>
@@ -9870,7 +9875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>175</v>
       </c>
@@ -9884,7 +9889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>65</v>
       </c>
@@ -9898,7 +9903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>65</v>
       </c>
@@ -9912,7 +9917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>65</v>
       </c>
@@ -9926,7 +9931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>65</v>
       </c>
@@ -9940,7 +9945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>65</v>
       </c>
@@ -9954,7 +9959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>65</v>
       </c>
@@ -9968,9 +9973,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B623">
         <v>17</v>
@@ -9982,9 +9987,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B624">
         <v>46</v>
@@ -9996,9 +10001,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B625">
         <v>52</v>
@@ -10010,7 +10015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>96</v>
       </c>
@@ -10024,7 +10029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>96</v>
       </c>
@@ -10038,7 +10043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>102</v>
       </c>
@@ -10052,7 +10057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>102</v>
       </c>
@@ -10066,7 +10071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>102</v>
       </c>
@@ -10080,7 +10085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>102</v>
       </c>
@@ -10094,7 +10099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>102</v>
       </c>
@@ -10108,7 +10113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>102</v>
       </c>
@@ -10122,7 +10127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>102</v>
       </c>
@@ -10136,7 +10141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>102</v>
       </c>
@@ -10150,7 +10155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>102</v>
       </c>
@@ -10164,7 +10169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>186</v>
       </c>
@@ -10178,7 +10183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>186</v>
       </c>
@@ -10192,7 +10197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>186</v>
       </c>
@@ -10206,7 +10211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>186</v>
       </c>
@@ -10220,7 +10225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>186</v>
       </c>
@@ -10234,7 +10239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>186</v>
       </c>
@@ -10248,7 +10253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>186</v>
       </c>
@@ -10262,7 +10267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>186</v>
       </c>
@@ -10276,7 +10281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>186</v>
       </c>
@@ -10290,7 +10295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>186</v>
       </c>
@@ -10304,7 +10309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>124</v>
       </c>
@@ -10318,7 +10323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>25</v>
       </c>
@@ -10332,7 +10337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>25</v>
       </c>
@@ -10346,7 +10351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>25</v>
       </c>
@@ -10360,7 +10365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>25</v>
       </c>
@@ -10374,7 +10379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>94</v>
       </c>
@@ -10388,7 +10393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>94</v>
       </c>
@@ -10402,7 +10407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>158</v>
       </c>
@@ -10416,7 +10421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>158</v>
       </c>
@@ -10430,7 +10435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>158</v>
       </c>
@@ -10444,9 +10449,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B657">
         <v>37</v>
@@ -10458,7 +10463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>144</v>
       </c>
@@ -10472,7 +10477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>144</v>
       </c>
@@ -10486,7 +10491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>144</v>
       </c>
@@ -10500,7 +10505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>144</v>
       </c>
@@ -10514,7 +10519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>144</v>
       </c>
@@ -10528,7 +10533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>17</v>
       </c>
@@ -10542,7 +10547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>86</v>
       </c>
@@ -10556,7 +10561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>86</v>
       </c>
@@ -10570,7 +10575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>86</v>
       </c>
@@ -10584,7 +10589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>86</v>
       </c>
@@ -10598,7 +10603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>86</v>
       </c>
@@ -10612,7 +10617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>86</v>
       </c>
@@ -10626,7 +10631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>86</v>
       </c>
@@ -10640,7 +10645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>86</v>
       </c>
@@ -10654,7 +10659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>86</v>
       </c>
@@ -10668,7 +10673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>86</v>
       </c>
@@ -10682,7 +10687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>86</v>
       </c>
@@ -10696,7 +10701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>86</v>
       </c>
@@ -10710,7 +10715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>86</v>
       </c>
@@ -10724,7 +10729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>86</v>
       </c>
@@ -10738,7 +10743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>86</v>
       </c>
@@ -10752,9 +10757,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B679">
         <v>2</v>
@@ -10766,9 +10771,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B680">
         <v>16</v>
@@ -10780,9 +10785,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B681">
         <v>37</v>
@@ -10794,7 +10799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>75</v>
       </c>
@@ -10808,7 +10813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>75</v>
       </c>
@@ -10822,7 +10827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>89</v>
       </c>
@@ -10836,7 +10841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>89</v>
       </c>
@@ -10850,9 +10855,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B686">
         <v>31</v>
@@ -10864,7 +10869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>85</v>
       </c>
@@ -10878,9 +10883,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B688">
         <v>31</v>
@@ -10892,9 +10897,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B689">
         <v>32</v>
@@ -10906,9 +10911,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B690">
         <v>39</v>
@@ -10920,9 +10925,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B691">
         <v>50</v>
@@ -10934,9 +10939,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B692">
         <v>4</v>
@@ -10948,9 +10953,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B693">
         <v>11</v>
@@ -10962,9 +10967,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B694">
         <v>25</v>
@@ -10976,9 +10981,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B695">
         <v>39</v>
@@ -10990,9 +10995,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B696">
         <v>46</v>
@@ -11004,9 +11009,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B697">
         <v>51</v>
@@ -11018,9 +11023,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B698">
         <v>31</v>
@@ -11032,9 +11037,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B699">
         <v>45</v>
@@ -11046,7 +11051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>173</v>
       </c>
@@ -11060,7 +11065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>173</v>
       </c>
@@ -11074,7 +11079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>173</v>
       </c>
@@ -11088,7 +11093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>173</v>
       </c>
@@ -11102,7 +11107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>173</v>
       </c>
@@ -11116,7 +11121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>173</v>
       </c>
@@ -11130,7 +11135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>173</v>
       </c>
@@ -11144,9 +11149,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B707">
         <v>15</v>
@@ -11158,9 +11163,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="708" spans="1:4">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B708">
         <v>16</v>
@@ -11172,9 +11177,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B709">
         <v>17</v>
@@ -11186,9 +11191,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B710">
         <v>43</v>
@@ -11200,9 +11205,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B711">
         <v>46</v>
@@ -11214,9 +11219,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B712">
         <v>50</v>
@@ -11228,9 +11233,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B713">
         <v>53</v>
@@ -11242,7 +11247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>58</v>
       </c>
@@ -11256,9 +11261,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B715">
         <v>51</v>
@@ -11270,9 +11275,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B716">
         <v>8</v>
@@ -11284,9 +11289,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B717">
         <v>15</v>
@@ -11298,9 +11303,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B718">
         <v>22</v>
@@ -11312,9 +11317,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B719">
         <v>29</v>
@@ -11326,9 +11331,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B720">
         <v>31</v>
@@ -11340,9 +11345,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B721">
         <v>36</v>
@@ -11354,9 +11359,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B722">
         <v>50</v>
@@ -11368,9 +11373,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B723">
         <v>51</v>
@@ -11382,9 +11387,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B724">
         <v>64</v>
@@ -11396,7 +11401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>160</v>
       </c>
@@ -11410,7 +11415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>160</v>
       </c>
@@ -11424,7 +11429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>160</v>
       </c>
@@ -11438,7 +11443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>160</v>
       </c>
@@ -11452,9 +11457,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B729">
         <v>29</v>
@@ -11466,9 +11471,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B730">
         <v>37</v>
@@ -11480,9 +11485,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B731">
         <v>17</v>
@@ -11494,9 +11499,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B732">
         <v>25</v>
@@ -11508,9 +11513,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B733">
         <v>31</v>
@@ -11522,9 +11527,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B734">
         <v>38</v>
@@ -11536,9 +11541,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B735">
         <v>38</v>
@@ -11550,9 +11555,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B736">
         <v>39</v>
@@ -11564,9 +11569,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B737">
         <v>46</v>
@@ -11578,9 +11583,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="738" spans="1:4">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B738">
         <v>54</v>
@@ -11592,7 +11597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>112</v>
       </c>
@@ -11606,7 +11611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="740" spans="1:4">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>112</v>
       </c>
@@ -11620,7 +11625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="741" spans="1:4">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>112</v>
       </c>
@@ -11634,7 +11639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>112</v>
       </c>
@@ -11648,7 +11653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>112</v>
       </c>
@@ -11662,7 +11667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="744" spans="1:4">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>112</v>
       </c>
@@ -11676,9 +11681,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B745">
         <v>5</v>
@@ -11690,9 +11695,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B746">
         <v>43</v>
@@ -11704,9 +11709,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B747">
         <v>3</v>
@@ -11718,9 +11723,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="748" spans="1:4">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B748">
         <v>5</v>
@@ -11732,9 +11737,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B749">
         <v>10</v>
@@ -11746,9 +11751,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B750">
         <v>24</v>
@@ -11760,9 +11765,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B751">
         <v>32</v>
@@ -11774,9 +11779,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B752">
         <v>38</v>
@@ -11788,9 +11793,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B753">
         <v>45</v>
@@ -11802,9 +11807,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B754">
         <v>54</v>
@@ -11816,7 +11821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>121</v>
       </c>
@@ -11830,7 +11835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>125</v>
       </c>
@@ -11844,7 +11849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>125</v>
       </c>
@@ -11858,7 +11863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>125</v>
       </c>
@@ -11872,7 +11877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>190</v>
       </c>
@@ -11886,9 +11891,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B760">
         <v>2</v>
@@ -11900,9 +11905,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B761">
         <v>5</v>
@@ -11914,9 +11919,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B762">
         <v>9</v>
@@ -11928,9 +11933,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B763">
         <v>16</v>
@@ -11942,9 +11947,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B764">
         <v>23</v>
@@ -11956,9 +11961,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B765">
         <v>25</v>
@@ -11970,9 +11975,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B766">
         <v>30</v>
@@ -11984,9 +11989,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B767">
         <v>32</v>
@@ -11998,9 +12003,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B768">
         <v>37</v>
@@ -12012,9 +12017,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B769">
         <v>44</v>
@@ -12026,9 +12031,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B770">
         <v>51</v>
@@ -12040,7 +12045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>140</v>
       </c>
@@ -12054,7 +12059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>140</v>
       </c>
@@ -12068,7 +12073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>140</v>
       </c>
@@ -12082,7 +12087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="774" spans="1:4">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>140</v>
       </c>
@@ -12096,7 +12101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="775" spans="1:4">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>140</v>
       </c>
@@ -12110,7 +12115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>140</v>
       </c>
@@ -12124,7 +12129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>140</v>
       </c>
@@ -12138,7 +12143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>183</v>
       </c>
@@ -12152,7 +12157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>183</v>
       </c>
@@ -12166,7 +12171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="780" spans="1:4">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>183</v>
       </c>
@@ -12180,7 +12185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="781" spans="1:4">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>36</v>
       </c>
@@ -12194,7 +12199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="782" spans="1:4">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>36</v>
       </c>
@@ -12208,7 +12213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="783" spans="1:4">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>36</v>
       </c>
@@ -12222,7 +12227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>36</v>
       </c>
@@ -12236,7 +12241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>36</v>
       </c>
@@ -12250,7 +12255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>36</v>
       </c>
@@ -12264,7 +12269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>36</v>
       </c>
@@ -12278,7 +12283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>36</v>
       </c>
@@ -12292,7 +12297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>36</v>
       </c>
@@ -12306,9 +12311,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B790">
         <v>44</v>
@@ -12320,9 +12325,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="B791">
         <v>27</v>
@@ -12334,9 +12339,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="792" spans="1:4">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B792">
         <v>11</v>
@@ -12348,9 +12353,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B793">
         <v>25</v>
@@ -12362,9 +12367,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="794" spans="1:4">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B794">
         <v>32</v>
@@ -12376,9 +12381,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B795">
         <v>38</v>
@@ -12390,9 +12395,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B796">
         <v>39</v>
@@ -12404,9 +12409,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B797">
         <v>46</v>
@@ -12418,7 +12423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="798" spans="1:4">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>54</v>
       </c>
@@ -12432,7 +12437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>99</v>
       </c>
@@ -12446,7 +12451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="800" spans="1:4">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>99</v>
       </c>
@@ -12460,7 +12465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="801" spans="1:4">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>39</v>
       </c>
@@ -12474,7 +12479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="802" spans="1:4">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>39</v>
       </c>
@@ -12488,7 +12493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="803" spans="1:4">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>39</v>
       </c>
@@ -12502,7 +12507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="804" spans="1:4">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>39</v>
       </c>
@@ -12516,7 +12521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="805" spans="1:4">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>39</v>
       </c>
@@ -12530,9 +12535,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="806" spans="1:4">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B806">
         <v>8</v>
@@ -12544,9 +12549,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="807" spans="1:4">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B807">
         <v>22</v>
@@ -12558,9 +12563,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="808" spans="1:4">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B808">
         <v>24</v>
@@ -12572,9 +12577,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="809" spans="1:4">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B809">
         <v>28</v>
@@ -12586,9 +12591,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="810" spans="1:4">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B810">
         <v>31</v>
@@ -12600,9 +12605,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="811" spans="1:4">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B811">
         <v>36</v>
@@ -12614,9 +12619,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="812" spans="1:4">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B812">
         <v>43</v>
@@ -12628,9 +12633,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="813" spans="1:4">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B813">
         <v>46</v>
@@ -12642,9 +12647,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="814" spans="1:4">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B814">
         <v>50</v>
@@ -12656,9 +12661,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="815" spans="1:4">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B815">
         <v>64</v>
@@ -12670,7 +12675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="816" spans="1:4">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>32</v>
       </c>
@@ -12684,7 +12689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="817" spans="1:4">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>120</v>
       </c>
@@ -12698,9 +12703,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="818" spans="1:4">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B818">
         <v>10</v>
@@ -12712,9 +12717,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="819" spans="1:4">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B819">
         <v>30</v>
@@ -12726,7 +12731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="820" spans="1:4">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>161</v>
       </c>
@@ -12740,7 +12745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="821" spans="1:4">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>161</v>
       </c>
@@ -12754,7 +12759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="822" spans="1:4">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>161</v>
       </c>
@@ -12768,7 +12773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="823" spans="1:4">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>111</v>
       </c>
@@ -12782,7 +12787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="824" spans="1:4">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>111</v>
       </c>
@@ -12796,7 +12801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="825" spans="1:4">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>150</v>
       </c>
@@ -12810,7 +12815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="826" spans="1:4">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>150</v>
       </c>
@@ -12824,7 +12829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="827" spans="1:4">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>150</v>
       </c>
@@ -12838,7 +12843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="828" spans="1:4">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>20</v>
       </c>
@@ -12852,7 +12857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="829" spans="1:4">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>20</v>
       </c>
@@ -12866,7 +12871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="830" spans="1:4">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>20</v>
       </c>
@@ -12880,7 +12885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="831" spans="1:4">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>20</v>
       </c>
@@ -12894,7 +12899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="832" spans="1:4">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>20</v>
       </c>
@@ -12908,7 +12913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="833" spans="1:4">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>20</v>
       </c>
@@ -12922,7 +12927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="834" spans="1:4">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>20</v>
       </c>
@@ -12936,7 +12941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="835" spans="1:4">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>20</v>
       </c>
@@ -12950,7 +12955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="836" spans="1:4">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>68</v>
       </c>
@@ -12964,7 +12969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="837" spans="1:4">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>68</v>
       </c>
@@ -12978,9 +12983,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="838" spans="1:4">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B838">
         <v>10</v>
@@ -12992,9 +12997,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="839" spans="1:4">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B839">
         <v>11</v>
@@ -13006,9 +13011,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="840" spans="1:4">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B840">
         <v>30</v>
@@ -13020,9 +13025,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="841" spans="1:4">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B841">
         <v>51</v>
@@ -13034,9 +13039,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="842" spans="1:4">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B842">
         <v>52</v>
@@ -13048,9 +13053,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="843" spans="1:4">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B843">
         <v>23</v>
@@ -13062,9 +13067,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="844" spans="1:4">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B844">
         <v>24</v>
@@ -13076,9 +13081,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="845" spans="1:4">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B845">
         <v>25</v>
@@ -13090,9 +13095,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="846" spans="1:4">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B846">
         <v>44</v>
@@ -13104,7 +13109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="847" spans="1:4">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>147</v>
       </c>
@@ -13118,7 +13123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="848" spans="1:4">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>147</v>
       </c>
@@ -13132,7 +13137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="849" spans="1:4">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>147</v>
       </c>
@@ -13146,7 +13151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="850" spans="1:4">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>147</v>
       </c>
@@ -13160,7 +13165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="851" spans="1:4">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>147</v>
       </c>
@@ -13174,7 +13179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="852" spans="1:4">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>147</v>
       </c>
@@ -13188,7 +13193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="853" spans="1:4">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>147</v>
       </c>
@@ -13202,7 +13207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="854" spans="1:4">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>23</v>
       </c>
@@ -13216,7 +13221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="855" spans="1:4">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>23</v>
       </c>
@@ -13230,7 +13235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="856" spans="1:4">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>84</v>
       </c>
@@ -13244,7 +13249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="857" spans="1:4">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>84</v>
       </c>
@@ -13258,9 +13263,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="858" spans="1:4">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B858">
         <v>25</v>
@@ -13272,9 +13277,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="859" spans="1:4">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B859">
         <v>38</v>
@@ -13286,7 +13291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="860" spans="1:4">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>208</v>
       </c>
@@ -13300,7 +13305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="861" spans="1:4">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>208</v>
       </c>
@@ -13314,7 +13319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="862" spans="1:4">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>208</v>
       </c>
@@ -13328,7 +13333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="863" spans="1:4">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>208</v>
       </c>
@@ -13342,7 +13347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="864" spans="1:4">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>208</v>
       </c>
@@ -13356,7 +13361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="865" spans="1:4">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>208</v>
       </c>
@@ -13370,7 +13375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="866" spans="1:4">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>208</v>
       </c>
@@ -13384,7 +13389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="867" spans="1:4">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>208</v>
       </c>
@@ -13398,7 +13403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="868" spans="1:4">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>208</v>
       </c>
@@ -13412,7 +13417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="869" spans="1:4">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>208</v>
       </c>
@@ -13426,7 +13431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="870" spans="1:4">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>208</v>
       </c>
@@ -13440,7 +13445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="871" spans="1:4">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>208</v>
       </c>
